--- a/GA-Mix-V2.xlsx
+++ b/GA-Mix-V2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27618"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncd2763\Documents\Data\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601E4E46-BD27-46BC-9E36-3B93FF7A7B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704BA26D-C2AF-461A-9FD2-D9F846A3AABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,37 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t xml:space="preserve">Average </t>
-  </si>
-  <si>
-    <t>Minimum Fitness</t>
-  </si>
-  <si>
-    <t>Negtive Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Fitness </t>
-  </si>
-  <si>
-    <t>Positive Range</t>
-  </si>
-  <si>
-    <t>standard deviation</t>
-  </si>
-  <si>
-    <t>Standard Deviation</t>
-  </si>
-  <si>
-    <t>best average Fitness</t>
-  </si>
-  <si>
-    <t>Best Fitness</t>
-  </si>
-  <si>
-    <t>Worst Ftiness</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>R1</t>
   </si>
@@ -99,14 +69,41 @@
     <t>R10</t>
   </si>
   <si>
-    <t>MinSD</t>
+    <t xml:space="preserve">Average </t>
+  </si>
+  <si>
+    <t>Minimum Fitness</t>
+  </si>
+  <si>
+    <t>Negtive Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Fitness </t>
+  </si>
+  <si>
+    <t>Positive Range</t>
+  </si>
+  <si>
+    <t>standard deviation</t>
+  </si>
+  <si>
+    <t>best average Fitness</t>
+  </si>
+  <si>
+    <t>Best Fitness</t>
+  </si>
+  <si>
+    <t>Worst Ftiness</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,10 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2033,41 +2029,41 @@
       <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12">
       <c r="C1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2102,7 +2098,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12">
       <c r="B3">
         <v>2</v>
       </c>
@@ -2137,7 +2133,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12">
       <c r="B4">
         <v>3</v>
       </c>
@@ -2172,7 +2168,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12">
       <c r="B5">
         <v>4</v>
       </c>
@@ -2207,7 +2203,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12">
       <c r="B6">
         <v>5</v>
       </c>
@@ -2242,7 +2238,7 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12">
       <c r="B7">
         <v>6</v>
       </c>
@@ -2277,7 +2273,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12">
       <c r="B8">
         <v>7</v>
       </c>
@@ -2312,7 +2308,7 @@
         <v>3692</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12">
       <c r="B9">
         <v>8</v>
       </c>
@@ -2347,7 +2343,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12">
       <c r="B10">
         <v>9</v>
       </c>
@@ -2382,7 +2378,7 @@
         <v>4860</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12">
       <c r="B11">
         <v>10</v>
       </c>
@@ -2417,7 +2413,7 @@
         <v>3660</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12">
       <c r="B12">
         <v>11</v>
       </c>
@@ -2452,7 +2448,7 @@
         <v>4524</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12">
       <c r="B13">
         <v>12</v>
       </c>
@@ -2487,7 +2483,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12">
       <c r="B14">
         <v>13</v>
       </c>
@@ -2522,7 +2518,7 @@
         <v>4810</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12">
       <c r="B15">
         <v>14</v>
       </c>
@@ -2557,7 +2553,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12">
       <c r="B16">
         <v>15</v>
       </c>
@@ -2592,7 +2588,7 @@
         <v>4473</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17">
         <v>16</v>
       </c>
@@ -2627,7 +2623,7 @@
         <v>4661</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18">
         <v>17</v>
       </c>
@@ -2662,7 +2658,7 @@
         <v>6106</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19">
         <v>18</v>
       </c>
@@ -2697,7 +2693,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12">
       <c r="B20">
         <v>19</v>
       </c>
@@ -2732,7 +2728,7 @@
         <v>5427</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="B21">
         <v>20</v>
       </c>
@@ -2767,7 +2763,7 @@
         <v>6264</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="B22">
         <v>21</v>
       </c>
@@ -2802,7 +2798,7 @@
         <v>5544</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="B23">
         <v>22</v>
       </c>
@@ -2837,7 +2833,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="B24">
         <v>23</v>
       </c>
@@ -2872,7 +2868,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="B25">
         <v>24</v>
       </c>
@@ -2907,7 +2903,7 @@
         <v>5402</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="B26">
         <v>25</v>
       </c>
@@ -2942,7 +2938,7 @@
         <v>6320</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="B27">
         <v>26</v>
       </c>
@@ -2977,7 +2973,7 @@
         <v>6512</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="B28">
         <v>27</v>
       </c>
@@ -3012,7 +3008,7 @@
         <v>4896</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="B29">
         <v>28</v>
       </c>
@@ -3047,7 +3043,7 @@
         <v>6106</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="B30">
         <v>29</v>
       </c>
@@ -3082,7 +3078,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="B31">
         <v>30</v>
       </c>
@@ -3117,7 +3113,7 @@
         <v>6048</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="B32">
         <v>31</v>
       </c>
@@ -3152,7 +3148,7 @@
         <v>5609</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12">
       <c r="B33">
         <v>32</v>
       </c>
@@ -3187,7 +3183,7 @@
         <v>5832</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12">
       <c r="B34">
         <v>33</v>
       </c>
@@ -3222,7 +3218,7 @@
         <v>5688</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12">
       <c r="B35">
         <v>34</v>
       </c>
@@ -3257,7 +3253,7 @@
         <v>7663</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12">
       <c r="B36">
         <v>35</v>
       </c>
@@ -3292,7 +3288,7 @@
         <v>4891</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12">
       <c r="B37">
         <v>36</v>
       </c>
@@ -3327,7 +3323,7 @@
         <v>5265</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12">
       <c r="B38">
         <v>37</v>
       </c>
@@ -3362,7 +3358,7 @@
         <v>5865</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12">
       <c r="B39">
         <v>38</v>
       </c>
@@ -3397,7 +3393,7 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12">
       <c r="B40">
         <v>39</v>
       </c>
@@ -3432,7 +3428,7 @@
         <v>5740</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12">
       <c r="B41">
         <v>40</v>
       </c>
@@ -3467,7 +3463,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12">
       <c r="B42">
         <v>41</v>
       </c>
@@ -3502,7 +3498,7 @@
         <v>5920</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12">
       <c r="B43">
         <v>42</v>
       </c>
@@ -3537,7 +3533,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12">
       <c r="B44">
         <v>43</v>
       </c>
@@ -3572,7 +3568,7 @@
         <v>5893</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12">
       <c r="B45">
         <v>44</v>
       </c>
@@ -3607,7 +3603,7 @@
         <v>5644</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12">
       <c r="B46">
         <v>45</v>
       </c>
@@ -3642,7 +3638,7 @@
         <v>6084</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12">
       <c r="B47">
         <v>46</v>
       </c>
@@ -3677,7 +3673,7 @@
         <v>5680</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12">
       <c r="B48">
         <v>47</v>
       </c>
@@ -3712,7 +3708,7 @@
         <v>6248</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12">
       <c r="B49">
         <v>48</v>
       </c>
@@ -3747,7 +3743,7 @@
         <v>6160</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12">
       <c r="B50">
         <v>49</v>
       </c>
@@ -3782,7 +3778,7 @@
         <v>5451</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12">
       <c r="B51">
         <v>50</v>
       </c>
@@ -3817,7 +3813,7 @@
         <v>5508</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12">
       <c r="B52">
         <v>51</v>
       </c>
@@ -3852,7 +3848,7 @@
         <v>5822</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12">
       <c r="B53">
         <v>52</v>
       </c>
@@ -3887,7 +3883,7 @@
         <v>5822</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12">
       <c r="B54">
         <v>53</v>
       </c>
@@ -3922,7 +3918,7 @@
         <v>5760</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12">
       <c r="B55">
         <v>54</v>
       </c>
@@ -3957,7 +3953,7 @@
         <v>5904</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12">
       <c r="B56">
         <v>55</v>
       </c>
@@ -3992,7 +3988,7 @@
         <v>6450</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12">
       <c r="B57">
         <v>56</v>
       </c>
@@ -4027,7 +4023,7 @@
         <v>5561</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12">
       <c r="B58">
         <v>57</v>
       </c>
@@ -4062,7 +4058,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12">
       <c r="B59">
         <v>58</v>
       </c>
@@ -4097,7 +4093,7 @@
         <v>6699</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12">
       <c r="B60">
         <v>59</v>
       </c>
@@ -4132,7 +4128,7 @@
         <v>5402</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12">
       <c r="B61">
         <v>60</v>
       </c>
@@ -4167,7 +4163,7 @@
         <v>6225</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12">
       <c r="B62">
         <v>61</v>
       </c>
@@ -4202,7 +4198,7 @@
         <v>7275</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12">
       <c r="B63">
         <v>62</v>
       </c>
@@ -4237,7 +4233,7 @@
         <v>5829</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12">
       <c r="B64">
         <v>63</v>
       </c>
@@ -4272,7 +4268,7 @@
         <v>5313</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12">
       <c r="B65">
         <v>64</v>
       </c>
@@ -4307,7 +4303,7 @@
         <v>5810</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12">
       <c r="B66">
         <v>65</v>
       </c>
@@ -4342,7 +4338,7 @@
         <v>5412</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12">
       <c r="B67">
         <v>66</v>
       </c>
@@ -4377,7 +4373,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12">
       <c r="B68">
         <v>67</v>
       </c>
@@ -4412,7 +4408,7 @@
         <v>5346</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12">
       <c r="B69">
         <v>68</v>
       </c>
@@ -4447,7 +4443,7 @@
         <v>6248</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12">
       <c r="B70">
         <v>69</v>
       </c>
@@ -4482,7 +4478,7 @@
         <v>5451</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12">
       <c r="B71">
         <v>70</v>
       </c>
@@ -4517,7 +4513,7 @@
         <v>5504</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12">
       <c r="B72">
         <v>71</v>
       </c>
@@ -4552,7 +4548,7 @@
         <v>6384</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12">
       <c r="B73">
         <v>72</v>
       </c>
@@ -4587,7 +4583,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12">
       <c r="B74">
         <v>73</v>
       </c>
@@ -4622,7 +4618,7 @@
         <v>5530</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12">
       <c r="B75">
         <v>74</v>
       </c>
@@ -4657,7 +4653,7 @@
         <v>5644</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12">
       <c r="B76">
         <v>75</v>
       </c>
@@ -4692,7 +4688,7 @@
         <v>4992</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12">
       <c r="B77">
         <v>76</v>
       </c>
@@ -4727,7 +4723,7 @@
         <v>5561</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12">
       <c r="B78">
         <v>77</v>
       </c>
@@ -4762,7 +4758,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12">
       <c r="B79">
         <v>78</v>
       </c>
@@ -4797,7 +4793,7 @@
         <v>6068</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12">
       <c r="B80">
         <v>79</v>
       </c>
@@ -4832,7 +4828,7 @@
         <v>5313</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12">
       <c r="B81">
         <v>80</v>
       </c>
@@ -4867,7 +4863,7 @@
         <v>5644</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12">
       <c r="B82">
         <v>81</v>
       </c>
@@ -4902,7 +4898,7 @@
         <v>4914</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12">
       <c r="B83">
         <v>82</v>
       </c>
@@ -4937,7 +4933,7 @@
         <v>4960</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12">
       <c r="B84">
         <v>83</v>
       </c>
@@ -4972,7 +4968,7 @@
         <v>6786</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12">
       <c r="B85">
         <v>84</v>
       </c>
@@ -5007,7 +5003,7 @@
         <v>5135</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12">
       <c r="B86">
         <v>85</v>
       </c>
@@ -5042,7 +5038,7 @@
         <v>5616</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12">
       <c r="B87">
         <v>86</v>
       </c>
@@ -5077,7 +5073,7 @@
         <v>6004</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12">
       <c r="B88">
         <v>87</v>
       </c>
@@ -5112,7 +5108,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12">
       <c r="B89">
         <v>88</v>
       </c>
@@ -5147,7 +5143,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12">
       <c r="B90">
         <v>89</v>
       </c>
@@ -5182,7 +5178,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12">
       <c r="B91">
         <v>90</v>
       </c>
@@ -5217,7 +5213,7 @@
         <v>5920</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12">
       <c r="B92">
         <v>91</v>
       </c>
@@ -5252,7 +5248,7 @@
         <v>7040</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12">
       <c r="B93">
         <v>92</v>
       </c>
@@ -5287,7 +5283,7 @@
         <v>6390</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12">
       <c r="B94">
         <v>93</v>
       </c>
@@ -5322,7 +5318,7 @@
         <v>6237</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12">
       <c r="B95">
         <v>94</v>
       </c>
@@ -5357,7 +5353,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12">
       <c r="B96">
         <v>95</v>
       </c>
@@ -5392,7 +5388,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12">
       <c r="B97">
         <v>96</v>
       </c>
@@ -5427,7 +5423,7 @@
         <v>5254</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12">
       <c r="B98">
         <v>97</v>
       </c>
@@ -5462,7 +5458,7 @@
         <v>6510</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12">
       <c r="B99">
         <v>98</v>
       </c>
@@ -5497,7 +5493,7 @@
         <v>5896</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12">
       <c r="B100">
         <v>99</v>
       </c>
@@ -5532,7 +5528,7 @@
         <v>5544</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12">
       <c r="B101">
         <v>100</v>
       </c>
@@ -5567,7 +5563,7 @@
         <v>6075</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12">
       <c r="B102">
         <v>101</v>
       </c>
@@ -5602,7 +5598,7 @@
         <v>5360</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12">
       <c r="B103">
         <v>102</v>
       </c>
@@ -5637,7 +5633,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12">
       <c r="B104">
         <v>103</v>
       </c>
@@ -5672,7 +5668,7 @@
         <v>5226</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12">
       <c r="B105">
         <v>104</v>
       </c>
@@ -5707,7 +5703,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12">
       <c r="B106">
         <v>105</v>
       </c>
@@ -5742,7 +5738,7 @@
         <v>6068</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12">
       <c r="B107">
         <v>106</v>
       </c>
@@ -5777,7 +5773,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12">
       <c r="B108">
         <v>107</v>
       </c>
@@ -5812,7 +5808,7 @@
         <v>6308</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12">
       <c r="B109">
         <v>108</v>
       </c>
@@ -5847,7 +5843,7 @@
         <v>6225</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12">
       <c r="B110">
         <v>109</v>
       </c>
@@ -5882,7 +5878,7 @@
         <v>6084</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12">
       <c r="B111">
         <v>110</v>
       </c>
@@ -5917,7 +5913,7 @@
         <v>6162</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12">
       <c r="B112">
         <v>111</v>
       </c>
@@ -5952,7 +5948,7 @@
         <v>6006</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12">
       <c r="B113">
         <v>112</v>
       </c>
@@ -5987,7 +5983,7 @@
         <v>6004</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12">
       <c r="B114">
         <v>113</v>
       </c>
@@ -6022,7 +6018,7 @@
         <v>5214</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12">
       <c r="B115">
         <v>114</v>
       </c>
@@ -6057,7 +6053,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12">
       <c r="B116">
         <v>115</v>
       </c>
@@ -6092,7 +6088,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12">
       <c r="B117">
         <v>116</v>
       </c>
@@ -6127,7 +6123,7 @@
         <v>5396</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12">
       <c r="B118">
         <v>117</v>
       </c>
@@ -6162,7 +6158,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12">
       <c r="B119">
         <v>118</v>
       </c>
@@ -6197,7 +6193,7 @@
         <v>5395</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12">
       <c r="B120">
         <v>119</v>
       </c>
@@ -6232,7 +6228,7 @@
         <v>5772</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12">
       <c r="B121">
         <v>120</v>
       </c>
@@ -6267,7 +6263,7 @@
         <v>5963</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12">
       <c r="B122">
         <v>121</v>
       </c>
@@ -6302,7 +6298,7 @@
         <v>5576</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12">
       <c r="B123">
         <v>122</v>
       </c>
@@ -6337,7 +6333,7 @@
         <v>5382</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12">
       <c r="B124">
         <v>123</v>
       </c>
@@ -6372,7 +6368,7 @@
         <v>5776</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12">
       <c r="B125">
         <v>124</v>
       </c>
@@ -6407,7 +6403,7 @@
         <v>5644</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12">
       <c r="B126">
         <v>125</v>
       </c>
@@ -6442,7 +6438,7 @@
         <v>5402</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12">
       <c r="B127">
         <v>126</v>
       </c>
@@ -6477,7 +6473,7 @@
         <v>7440</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12">
       <c r="B128">
         <v>127</v>
       </c>
@@ -6512,7 +6508,7 @@
         <v>7254</v>
       </c>
     </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:12">
       <c r="B129">
         <v>128</v>
       </c>
@@ -6547,7 +6543,7 @@
         <v>6417</v>
       </c>
     </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:12">
       <c r="B130">
         <v>129</v>
       </c>
@@ -6582,7 +6578,7 @@
         <v>5610</v>
       </c>
     </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:12">
       <c r="B131">
         <v>130</v>
       </c>
@@ -6617,7 +6613,7 @@
         <v>6474</v>
       </c>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:12">
       <c r="B132">
         <v>131</v>
       </c>
@@ -6652,7 +6648,7 @@
         <v>5427</v>
       </c>
     </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:12">
       <c r="B133">
         <v>132</v>
       </c>
@@ -6687,7 +6683,7 @@
         <v>5561</v>
       </c>
     </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:12">
       <c r="B134">
         <v>133</v>
       </c>
@@ -6722,7 +6718,7 @@
         <v>6825</v>
       </c>
     </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:12">
       <c r="B135">
         <v>134</v>
       </c>
@@ -6757,7 +6753,7 @@
         <v>5472</v>
       </c>
     </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:12">
       <c r="B136">
         <v>135</v>
       </c>
@@ -6792,7 +6788,7 @@
         <v>5382</v>
       </c>
     </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:12">
       <c r="B137">
         <v>136</v>
       </c>
@@ -6827,7 +6823,7 @@
         <v>7084</v>
       </c>
     </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:12">
       <c r="B138">
         <v>137</v>
       </c>
@@ -6862,7 +6858,7 @@
         <v>6975</v>
       </c>
     </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:12">
       <c r="B139">
         <v>138</v>
       </c>
@@ -6897,7 +6893,7 @@
         <v>7568</v>
       </c>
     </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:12">
       <c r="B140">
         <v>139</v>
       </c>
@@ -6932,7 +6928,7 @@
         <v>5330</v>
       </c>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:12">
       <c r="B141">
         <v>140</v>
       </c>
@@ -6967,7 +6963,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:12">
       <c r="B142">
         <v>141</v>
       </c>
@@ -7002,7 +6998,7 @@
         <v>5504</v>
       </c>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:12">
       <c r="B143">
         <v>142</v>
       </c>
@@ -7037,7 +7033,7 @@
         <v>6391</v>
       </c>
     </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:12">
       <c r="B144">
         <v>143</v>
       </c>
@@ -7072,7 +7068,7 @@
         <v>5544</v>
       </c>
     </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:12">
       <c r="B145">
         <v>144</v>
       </c>
@@ -7107,7 +7103,7 @@
         <v>6141</v>
       </c>
     </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:12">
       <c r="B146">
         <v>145</v>
       </c>
@@ -7142,7 +7138,7 @@
         <v>7680</v>
       </c>
     </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:12">
       <c r="B147">
         <v>146</v>
       </c>
@@ -7177,7 +7173,7 @@
         <v>5244</v>
       </c>
     </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:12">
       <c r="B148">
         <v>147</v>
       </c>
@@ -7212,7 +7208,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:12">
       <c r="B149">
         <v>148</v>
       </c>
@@ -7247,7 +7243,7 @@
         <v>5916</v>
       </c>
     </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:12">
       <c r="B150">
         <v>149</v>
       </c>
@@ -7282,7 +7278,7 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:12">
       <c r="B151">
         <v>150</v>
       </c>
@@ -7317,7 +7313,7 @@
         <v>5472</v>
       </c>
     </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:12">
       <c r="B152">
         <v>151</v>
       </c>
@@ -7352,7 +7348,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:12">
       <c r="B153">
         <v>152</v>
       </c>
@@ -7387,7 +7383,7 @@
         <v>6570</v>
       </c>
     </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:12">
       <c r="B154">
         <v>153</v>
       </c>
@@ -7422,7 +7418,7 @@
         <v>6715</v>
       </c>
     </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:12">
       <c r="B155">
         <v>154</v>
       </c>
@@ -7457,7 +7453,7 @@
         <v>5544</v>
       </c>
     </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:12">
       <c r="B156">
         <v>155</v>
       </c>
@@ -7492,7 +7488,7 @@
         <v>6225</v>
       </c>
     </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:12">
       <c r="B157">
         <v>156</v>
       </c>
@@ -7527,7 +7523,7 @@
         <v>5698</v>
       </c>
     </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:12">
       <c r="B158">
         <v>157</v>
       </c>
@@ -7562,7 +7558,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:12">
       <c r="B159">
         <v>158</v>
       </c>
@@ -7597,7 +7593,7 @@
         <v>5382</v>
       </c>
     </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:12">
       <c r="B160">
         <v>159</v>
       </c>
@@ -7632,7 +7628,7 @@
         <v>5727</v>
       </c>
     </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:12">
       <c r="B161">
         <v>160</v>
       </c>
@@ -7667,7 +7663,7 @@
         <v>5727</v>
       </c>
     </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:12">
       <c r="B162">
         <v>161</v>
       </c>
@@ -7702,7 +7698,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:12">
       <c r="B163">
         <v>162</v>
       </c>
@@ -7737,7 +7733,7 @@
         <v>6217.7</v>
       </c>
     </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:12">
       <c r="B164">
         <v>163</v>
       </c>
@@ -7772,7 +7768,7 @@
         <v>6160</v>
       </c>
     </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:12">
       <c r="B165">
         <v>164</v>
       </c>
@@ -7807,7 +7803,7 @@
         <v>5451</v>
       </c>
     </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:12">
       <c r="B166">
         <v>165</v>
       </c>
@@ -7842,7 +7838,7 @@
         <v>7128</v>
       </c>
     </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:12">
       <c r="B167">
         <v>166</v>
       </c>
@@ -7877,7 +7873,7 @@
         <v>5576</v>
       </c>
     </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:12">
       <c r="B168">
         <v>167</v>
       </c>
@@ -7912,7 +7908,7 @@
         <v>5092</v>
       </c>
     </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:12">
       <c r="B169">
         <v>168</v>
       </c>
@@ -7947,7 +7943,7 @@
         <v>6314</v>
       </c>
     </row>
-    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:12">
       <c r="B170">
         <v>169</v>
       </c>
@@ -7982,7 +7978,7 @@
         <v>6794</v>
       </c>
     </row>
-    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:12">
       <c r="B171">
         <v>170</v>
       </c>
@@ -8017,7 +8013,7 @@
         <v>6570</v>
       </c>
     </row>
-    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:12">
       <c r="B172">
         <v>171</v>
       </c>
@@ -8052,7 +8048,7 @@
         <v>5427</v>
       </c>
     </row>
-    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:12">
       <c r="B173">
         <v>172</v>
       </c>
@@ -8087,7 +8083,7 @@
         <v>6789</v>
       </c>
     </row>
-    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:12">
       <c r="B174">
         <v>173</v>
       </c>
@@ -8122,7 +8118,7 @@
         <v>5254</v>
       </c>
     </row>
-    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:12">
       <c r="B175">
         <v>174</v>
       </c>
@@ -8157,7 +8153,7 @@
         <v>6225</v>
       </c>
     </row>
-    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:12">
       <c r="B176">
         <v>175</v>
       </c>
@@ -8192,7 +8188,7 @@
         <v>5742</v>
       </c>
     </row>
-    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:12">
       <c r="B177">
         <v>176</v>
       </c>
@@ -8227,7 +8223,7 @@
         <v>5934</v>
       </c>
     </row>
-    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:12">
       <c r="B178">
         <v>177</v>
       </c>
@@ -8262,7 +8258,7 @@
         <v>6052</v>
       </c>
     </row>
-    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:12">
       <c r="B179">
         <v>178</v>
       </c>
@@ -8297,7 +8293,7 @@
         <v>6660</v>
       </c>
     </row>
-    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:12">
       <c r="B180">
         <v>179</v>
       </c>
@@ -8332,7 +8328,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:12">
       <c r="B181">
         <v>180</v>
       </c>
@@ -8367,7 +8363,7 @@
         <v>5760</v>
       </c>
     </row>
-    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:12">
       <c r="B182">
         <v>181</v>
       </c>
@@ -8402,7 +8398,7 @@
         <v>6264</v>
       </c>
     </row>
-    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:12">
       <c r="B183">
         <v>182</v>
       </c>
@@ -8437,7 +8433,7 @@
         <v>8466</v>
       </c>
     </row>
-    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:12">
       <c r="B184">
         <v>183</v>
       </c>
@@ -8472,7 +8468,7 @@
         <v>6177</v>
       </c>
     </row>
-    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:12">
       <c r="B185">
         <v>184</v>
       </c>
@@ -8507,7 +8503,7 @@
         <v>5427</v>
       </c>
     </row>
-    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:12">
       <c r="B186">
         <v>185</v>
       </c>
@@ -8542,7 +8538,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:12">
       <c r="B187">
         <v>186</v>
       </c>
@@ -8577,7 +8573,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:12">
       <c r="B188">
         <v>187</v>
       </c>
@@ -8612,7 +8608,7 @@
         <v>5548</v>
       </c>
     </row>
-    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:12">
       <c r="B189">
         <v>188</v>
       </c>
@@ -8647,7 +8643,7 @@
         <v>6825</v>
       </c>
     </row>
-    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:12">
       <c r="B190">
         <v>189</v>
       </c>
@@ -8682,7 +8678,7 @@
         <v>5254</v>
       </c>
     </row>
-    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:12">
       <c r="B191">
         <v>190</v>
       </c>
@@ -8717,7 +8713,7 @@
         <v>7020</v>
       </c>
     </row>
-    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:12">
       <c r="B192">
         <v>191</v>
       </c>
@@ -8752,7 +8748,7 @@
         <v>5548</v>
       </c>
     </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:12">
       <c r="B193">
         <v>192</v>
       </c>
@@ -8787,7 +8783,7 @@
         <v>6750</v>
       </c>
     </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12">
       <c r="B194">
         <v>193</v>
       </c>
@@ -8822,7 +8818,7 @@
         <v>6120</v>
       </c>
     </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12">
       <c r="B195">
         <v>194</v>
       </c>
@@ -8857,7 +8853,7 @@
         <v>6474</v>
       </c>
     </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:12">
       <c r="B196">
         <v>195</v>
       </c>
@@ -8892,7 +8888,7 @@
         <v>5382</v>
       </c>
     </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:12">
       <c r="B197">
         <v>196</v>
       </c>
@@ -8927,7 +8923,7 @@
         <v>5467</v>
       </c>
     </row>
-    <row r="198" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12">
       <c r="B198">
         <v>197</v>
       </c>
@@ -8962,7 +8958,7 @@
         <v>8188</v>
       </c>
     </row>
-    <row r="199" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:12">
       <c r="B199">
         <v>198</v>
       </c>
@@ -8997,7 +8993,7 @@
         <v>6966</v>
       </c>
     </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12">
       <c r="B200">
         <v>199</v>
       </c>
@@ -9032,7 +9028,7 @@
         <v>6120</v>
       </c>
     </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:12">
       <c r="B201">
         <v>200</v>
       </c>
@@ -9067,7 +9063,7 @@
         <v>5548</v>
       </c>
     </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:12">
       <c r="B202">
         <v>201</v>
       </c>
@@ -9113,10 +9109,10 @@
   <dimension ref="A1:J206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -9126,27 +9122,27 @@
     <col min="9" max="9" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <f>Data!B2</f>
         <v>1</v>
@@ -9176,7 +9172,7 @@
         <v>801.30838142518519</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <f>Data!B3</f>
         <v>2</v>
@@ -9206,7 +9202,7 @@
         <v>1232.1933286724936</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <f>Data!B4</f>
         <v>3</v>
@@ -9236,7 +9232,7 @@
         <v>1275.6594591034082</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <f>Data!B5</f>
         <v>4</v>
@@ -9266,7 +9262,7 @@
         <v>1381.9936791552268</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <f>Data!B6</f>
         <v>5</v>
@@ -9296,7 +9292,7 @@
         <v>1033.8982604806915</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <f>Data!B7</f>
         <v>6</v>
@@ -9326,7 +9322,7 @@
         <v>862.2455483213588</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <f>Data!B8</f>
         <v>7</v>
@@ -9356,7 +9352,7 @@
         <v>1011.5341544406691</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <f>Data!B9</f>
         <v>8</v>
@@ -9386,7 +9382,7 @@
         <v>989.60614407955234</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <f>Data!B10</f>
         <v>9</v>
@@ -9416,7 +9412,7 @@
         <v>832.2690430383675</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <f>Data!B11</f>
         <v>10</v>
@@ -9446,7 +9442,7 @@
         <v>891.9682738752557</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
         <f>Data!B12</f>
         <v>11</v>
@@ -9476,7 +9472,7 @@
         <v>911.05238576055694</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <f>Data!B13</f>
         <v>12</v>
@@ -9506,7 +9502,7 @@
         <v>766.27008293420931</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14">
         <f>Data!B14</f>
         <v>13</v>
@@ -9536,7 +9532,7 @@
         <v>776.56192438208041</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15">
         <f>Data!B15</f>
         <v>14</v>
@@ -9566,7 +9562,7 @@
         <v>679.90429473566348</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16">
         <f>Data!B16</f>
         <v>15</v>
@@ -9596,7 +9592,7 @@
         <v>776.16145871848084</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17">
         <f>Data!B17</f>
         <v>16</v>
@@ -9626,7 +9622,7 @@
         <v>574.34627186045179</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18">
         <f>Data!B18</f>
         <v>17</v>
@@ -9656,7 +9652,7 @@
         <v>713.33616899747904</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19">
         <f>Data!B19</f>
         <v>18</v>
@@ -9686,7 +9682,7 @@
         <v>665.46537099987404</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20">
         <f>Data!B20</f>
         <v>19</v>
@@ -9716,7 +9712,7 @@
         <v>751.64206907277355</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21">
         <f>Data!B21</f>
         <v>20</v>
@@ -9746,7 +9742,7 @@
         <v>713.31659170385205</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22">
         <f>Data!B22</f>
         <v>21</v>
@@ -9776,7 +9772,7 @@
         <v>585.08230566306247</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23">
         <f>Data!B23</f>
         <v>22</v>
@@ -9806,14 +9802,14 @@
         <v>368.60386595910791</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J23" s="1">
         <f>B201</f>
         <v>6128</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24">
         <f>Data!B24</f>
         <v>23</v>
@@ -9843,14 +9839,14 @@
         <v>761.22753497229724</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1">
         <f>E201</f>
         <v>7998</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25">
         <f>Data!B25</f>
         <v>24</v>
@@ -9880,14 +9876,14 @@
         <v>526.11314372480751</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J25" s="1">
         <f>C201</f>
         <v>5236</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26">
         <f>Data!B26</f>
         <v>25</v>
@@ -9917,14 +9913,14 @@
         <v>556.09786908421074</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1">
         <f>G201</f>
         <v>807.31195952989572</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27">
         <f>Data!B27</f>
         <v>26</v>
@@ -9953,15 +9949,8 @@
         <f>_xlfn.STDEV.P(Data!C27:L27)</f>
         <v>676.18846485281017</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27">
-        <f>MIN(G2:G202)</f>
-        <v>117.656321547123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <f>Data!B28</f>
         <v>27</v>
@@ -9991,7 +9980,7 @@
         <v>424.4625896354118</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29">
         <f>Data!B29</f>
         <v>28</v>
@@ -10021,7 +10010,7 @@
         <v>522.88254895339549</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30">
         <f>Data!B30</f>
         <v>29</v>
@@ -10051,7 +10040,7 @@
         <v>271.3899224363351</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31">
         <f>Data!B31</f>
         <v>30</v>
@@ -10081,7 +10070,7 @@
         <v>534.60629438868375</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32">
         <f>Data!B32</f>
         <v>31</v>
@@ -10111,7 +10100,7 @@
         <v>505.06577789432538</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33">
         <f>Data!B33</f>
         <v>32</v>
@@ -10141,7 +10130,7 @@
         <v>440.85013326526285</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34">
         <f>Data!B34</f>
         <v>33</v>
@@ -10171,7 +10160,7 @@
         <v>516.17408884987628</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35">
         <f>Data!B35</f>
         <v>34</v>
@@ -10201,7 +10190,7 @@
         <v>990.85056390961392</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36">
         <f>Data!B36</f>
         <v>35</v>
@@ -10231,7 +10220,7 @@
         <v>708.46948416992529</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37">
         <f>Data!B37</f>
         <v>36</v>
@@ -10261,7 +10250,7 @@
         <v>421.26035892307738</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38">
         <f>Data!B38</f>
         <v>37</v>
@@ -10291,7 +10280,7 @@
         <v>474.07716671444956</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39">
         <f>Data!B39</f>
         <v>38</v>
@@ -10321,7 +10310,7 @@
         <v>606.65835525442162</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40">
         <f>Data!B40</f>
         <v>39</v>
@@ -10351,7 +10340,7 @@
         <v>462.14936979292742</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41">
         <f>Data!B41</f>
         <v>40</v>
@@ -10381,7 +10370,7 @@
         <v>354.35016579649005</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42">
         <f>Data!B42</f>
         <v>41</v>
@@ -10411,7 +10400,7 @@
         <v>406.23152265672343</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43">
         <f>Data!B43</f>
         <v>42</v>
@@ -10441,7 +10430,7 @@
         <v>700.25338985255905</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44">
         <f>Data!B44</f>
         <v>43</v>
@@ -10471,7 +10460,7 @@
         <v>397.40135883008753</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45">
         <f>Data!B45</f>
         <v>44</v>
@@ -10501,7 +10490,7 @@
         <v>371.54730519814029</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46">
         <f>Data!B46</f>
         <v>45</v>
@@ -10531,7 +10520,7 @@
         <v>500.28093107772958</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47">
         <f>Data!B47</f>
         <v>46</v>
@@ -10561,7 +10550,7 @@
         <v>276.62205262776865</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48">
         <f>Data!B48</f>
         <v>47</v>
@@ -10591,7 +10580,7 @@
         <v>552.83958794572584</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49">
         <f>Data!B49</f>
         <v>48</v>
@@ -10621,7 +10610,7 @@
         <v>724.10084932970494</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50">
         <f>Data!B50</f>
         <v>49</v>
@@ -10651,7 +10640,7 @@
         <v>623.00631425371785</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51">
         <f>Data!B51</f>
         <v>50</v>
@@ -10681,7 +10670,7 @@
         <v>539.5705792572461</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52">
         <f>Data!B52</f>
         <v>51</v>
@@ -10711,7 +10700,7 @@
         <v>551.03720382565825</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53">
         <f>Data!B53</f>
         <v>52</v>
@@ -10741,7 +10730,7 @@
         <v>633.46716568422073</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54">
         <f>Data!B54</f>
         <v>53</v>
@@ -10771,7 +10760,7 @@
         <v>258.64317118377591</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55">
         <f>Data!B55</f>
         <v>54</v>
@@ -10801,7 +10790,7 @@
         <v>488.8922580691987</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56">
         <f>Data!B56</f>
         <v>55</v>
@@ -10831,7 +10820,7 @@
         <v>793.47864495523754</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57">
         <f>Data!B57</f>
         <v>56</v>
@@ -10861,7 +10850,7 @@
         <v>487.09933278541865</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58">
         <f>Data!B58</f>
         <v>57</v>
@@ -10891,7 +10880,7 @@
         <v>405.48441400379374</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59">
         <f>Data!B59</f>
         <v>58</v>
@@ -10921,7 +10910,7 @@
         <v>594.73856441296959</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60">
         <f>Data!B60</f>
         <v>59</v>
@@ -10951,7 +10940,7 @@
         <v>625.52982342970665</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61">
         <f>Data!B61</f>
         <v>60</v>
@@ -10981,7 +10970,7 @@
         <v>657.4649496361003</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62">
         <f>Data!B62</f>
         <v>61</v>
@@ -11011,7 +11000,7 @@
         <v>601.16939376518496</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63">
         <f>Data!B63</f>
         <v>62</v>
@@ -11041,7 +11030,7 @@
         <v>533.27014729872133</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64">
         <f>Data!B64</f>
         <v>63</v>
@@ -11071,7 +11060,7 @@
         <v>339.76491873058347</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65">
         <f>Data!B65</f>
         <v>64</v>
@@ -11101,7 +11090,7 @@
         <v>316.27393190081284</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66">
         <f>Data!B66</f>
         <v>65</v>
@@ -11131,7 +11120,7 @@
         <v>564.5676310239545</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67">
         <f>Data!B67</f>
         <v>66</v>
@@ -11161,7 +11150,7 @@
         <v>563.52587340777882</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68">
         <f>Data!B68</f>
         <v>67</v>
@@ -11191,7 +11180,7 @@
         <v>298.05026421729605</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69">
         <f>Data!B69</f>
         <v>68</v>
@@ -11221,7 +11210,7 @@
         <v>830.75219530254628</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70">
         <f>Data!B70</f>
         <v>69</v>
@@ -11251,7 +11240,7 @@
         <v>476.02121801449147</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71">
         <f>Data!B71</f>
         <v>70</v>
@@ -11281,7 +11270,7 @@
         <v>719.05969849519443</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72">
         <f>Data!B72</f>
         <v>71</v>
@@ -11311,7 +11300,7 @@
         <v>371.255922511682</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73">
         <f>Data!B73</f>
         <v>72</v>
@@ -11341,7 +11330,7 @@
         <v>327.80183037927043</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74">
         <f>Data!B74</f>
         <v>73</v>
@@ -11371,7 +11360,7 @@
         <v>429.92320244434359</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75">
         <f>Data!B75</f>
         <v>74</v>
@@ -11401,7 +11390,7 @@
         <v>500.52412529267758</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76">
         <f>Data!B76</f>
         <v>75</v>
@@ -11431,7 +11420,7 @@
         <v>730.96659294389099</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77">
         <f>Data!B77</f>
         <v>76</v>
@@ -11461,7 +11450,7 @@
         <v>572.96872514998586</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78">
         <f>Data!B78</f>
         <v>77</v>
@@ -11491,7 +11480,7 @@
         <v>816.40177908919782</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79">
         <f>Data!B79</f>
         <v>78</v>
@@ -11521,7 +11510,7 @@
         <v>523.44784840516832</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80">
         <f>Data!B80</f>
         <v>79</v>
@@ -11551,7 +11540,7 @@
         <v>452.04005353508222</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81">
         <f>Data!B81</f>
         <v>80</v>
@@ -11581,7 +11570,7 @@
         <v>521.71046567995927</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82">
         <f>Data!B82</f>
         <v>81</v>
@@ -11611,7 +11600,7 @@
         <v>978.02404878407776</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83">
         <f>Data!B83</f>
         <v>82</v>
@@ -11641,7 +11630,7 @@
         <v>818.3323530204583</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84">
         <f>Data!B84</f>
         <v>83</v>
@@ -11671,7 +11660,7 @@
         <v>685.34459215784295</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85">
         <f>Data!B85</f>
         <v>84</v>
@@ -11701,7 +11690,7 @@
         <v>687.71797271846833</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86">
         <f>Data!B86</f>
         <v>85</v>
@@ -11731,7 +11720,7 @@
         <v>600.33694705556809</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87">
         <f>Data!B87</f>
         <v>86</v>
@@ -11761,7 +11750,7 @@
         <v>684.10233152650494</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88">
         <f>Data!B88</f>
         <v>87</v>
@@ -11791,7 +11780,7 @@
         <v>792.75146798981075</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89">
         <f>Data!B89</f>
         <v>88</v>
@@ -11821,7 +11810,7 @@
         <v>503.05391718979786</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90">
         <f>Data!B90</f>
         <v>89</v>
@@ -11851,7 +11840,7 @@
         <v>740.90617489665988</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91">
         <f>Data!B91</f>
         <v>90</v>
@@ -11881,7 +11870,7 @@
         <v>922.73883629117938</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92">
         <f>Data!B92</f>
         <v>91</v>
@@ -11911,7 +11900,7 @@
         <v>794.0755694516738</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93">
         <f>Data!B93</f>
         <v>92</v>
@@ -11941,7 +11930,7 @@
         <v>903.19267047513176</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94">
         <f>Data!B94</f>
         <v>93</v>
@@ -11971,7 +11960,7 @@
         <v>655.19404759200916</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95">
         <f>Data!B95</f>
         <v>94</v>
@@ -12001,7 +11990,7 @@
         <v>645.04502943593013</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96">
         <f>Data!B96</f>
         <v>95</v>
@@ -12031,7 +12020,7 @@
         <v>433.86842475570865</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97">
         <f>Data!B97</f>
         <v>96</v>
@@ -12061,7 +12050,7 @@
         <v>421.39678451549673</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98">
         <f>Data!B98</f>
         <v>97</v>
@@ -12091,7 +12080,7 @@
         <v>401.58412568227845</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99">
         <f>Data!B99</f>
         <v>98</v>
@@ -12121,7 +12110,7 @@
         <v>409.79605903424692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100">
         <f>Data!B100</f>
         <v>99</v>
@@ -12151,7 +12140,7 @@
         <v>747.14507292760754</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101">
         <f>Data!B101</f>
         <v>100</v>
@@ -12181,7 +12170,7 @@
         <v>530.71028819874971</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102">
         <f>Data!B102</f>
         <v>101</v>
@@ -12211,7 +12200,7 @@
         <v>590.5285429172751</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103">
         <f>Data!B103</f>
         <v>102</v>
@@ -12241,7 +12230,7 @@
         <v>518.58412046648709</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104">
         <f>Data!B104</f>
         <v>103</v>
@@ -12271,7 +12260,7 @@
         <v>592.36027044358741</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105">
         <f>Data!B105</f>
         <v>104</v>
@@ -12301,7 +12290,7 @@
         <v>716.71543167424545</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106">
         <f>Data!B106</f>
         <v>105</v>
@@ -12331,7 +12320,7 @@
         <v>662.63133792479209</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107">
         <f>Data!B107</f>
         <v>106</v>
@@ -12361,7 +12350,7 @@
         <v>824.71940076610292</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108">
         <f>Data!B108</f>
         <v>107</v>
@@ -12391,7 +12380,7 @@
         <v>799.20285910399491</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109">
         <f>Data!B109</f>
         <v>108</v>
@@ -12421,7 +12410,7 @@
         <v>421.01602107283281</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110">
         <f>Data!B110</f>
         <v>109</v>
@@ -12451,7 +12440,7 @@
         <v>392.10025503689747</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111">
         <f>Data!B111</f>
         <v>110</v>
@@ -12481,7 +12470,7 @@
         <v>578.2838489876749</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112">
         <f>Data!B112</f>
         <v>111</v>
@@ -12511,7 +12500,7 @@
         <v>463.5897000581441</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113">
         <f>Data!B113</f>
         <v>112</v>
@@ -12541,7 +12530,7 @@
         <v>428.27421122453774</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114">
         <f>Data!B114</f>
         <v>113</v>
@@ -12571,7 +12560,7 @@
         <v>535.09999999999991</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115">
         <f>Data!B115</f>
         <v>114</v>
@@ -12601,7 +12590,7 @@
         <v>632.18320920442045</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116">
         <f>Data!B116</f>
         <v>115</v>
@@ -12631,7 +12620,7 @@
         <v>397.45194678099136</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117">
         <f>Data!B117</f>
         <v>116</v>
@@ -12661,7 +12650,7 @@
         <v>508.35047949224952</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118">
         <f>Data!B118</f>
         <v>117</v>
@@ -12691,7 +12680,7 @@
         <v>877.32352071513503</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119">
         <f>Data!B119</f>
         <v>118</v>
@@ -12721,7 +12710,7 @@
         <v>582.39513219119544</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120">
         <f>Data!B120</f>
         <v>119</v>
@@ -12751,7 +12740,7 @@
         <v>638.19241612541907</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121">
         <f>Data!B121</f>
         <v>120</v>
@@ -12781,7 +12770,7 @@
         <v>445.96237509458126</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122">
         <f>Data!B122</f>
         <v>121</v>
@@ -12811,7 +12800,7 @@
         <v>728.63794164180058</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123">
         <f>Data!B123</f>
         <v>122</v>
@@ -12841,7 +12830,7 @@
         <v>659.63265534689833</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124">
         <f>Data!B124</f>
         <v>123</v>
@@ -12871,7 +12860,7 @@
         <v>545.41772065087878</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125">
         <f>Data!B125</f>
         <v>124</v>
@@ -12901,7 +12890,7 @@
         <v>943.33056772268333</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126">
         <f>Data!B126</f>
         <v>125</v>
@@ -12931,7 +12920,7 @@
         <v>717.74101178628496</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127">
         <f>Data!B127</f>
         <v>126</v>
@@ -12961,7 +12950,7 @@
         <v>946.15167917200256</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128">
         <f>Data!B128</f>
         <v>127</v>
@@ -12991,7 +12980,7 @@
         <v>706.5436818767829</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129">
         <f>Data!B129</f>
         <v>128</v>
@@ -13021,7 +13010,7 @@
         <v>591.05400768457707</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130">
         <f>Data!B130</f>
         <v>129</v>
@@ -13051,7 +13040,7 @@
         <v>656.8427894100688</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131">
         <f>Data!B131</f>
         <v>130</v>
@@ -13081,7 +13070,7 @@
         <v>966.69592426988129</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132">
         <f>Data!B132</f>
         <v>131</v>
@@ -13111,7 +13100,7 @@
         <v>1084.7725337599584</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133">
         <f>Data!B133</f>
         <v>132</v>
@@ -13141,7 +13130,7 @@
         <v>521.95882021477519</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134">
         <f>Data!B134</f>
         <v>133</v>
@@ -13171,7 +13160,7 @@
         <v>700.95403558293322</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135">
         <f>Data!B135</f>
         <v>134</v>
@@ -13201,7 +13190,7 @@
         <v>584.24022456520402</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136">
         <f>Data!B136</f>
         <v>135</v>
@@ -13231,7 +13220,7 @@
         <v>615.52976369953058</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137">
         <f>Data!B137</f>
         <v>136</v>
@@ -13261,7 +13250,7 @@
         <v>791.62787343549235</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138">
         <f>Data!B138</f>
         <v>137</v>
@@ -13291,7 +13280,7 @@
         <v>770.99029825283799</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139">
         <f>Data!B139</f>
         <v>138</v>
@@ -13321,7 +13310,7 @@
         <v>652.17267652056694</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140">
         <f>Data!B140</f>
         <v>139</v>
@@ -13351,7 +13340,7 @@
         <v>486.70541398262662</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141">
         <f>Data!B141</f>
         <v>140</v>
@@ -13381,7 +13370,7 @@
         <v>1089.9131203907953</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142">
         <f>Data!B142</f>
         <v>141</v>
@@ -13411,7 +13400,7 @@
         <v>732.28998088189496</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143">
         <f>Data!B143</f>
         <v>142</v>
@@ -13441,7 +13430,7 @@
         <v>787.17873446886256</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144">
         <f>Data!B144</f>
         <v>143</v>
@@ -13471,7 +13460,7 @@
         <v>717.23970888399651</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145">
         <f>Data!B145</f>
         <v>144</v>
@@ -13501,7 +13490,7 @@
         <v>625.13007446450695</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146">
         <f>Data!B146</f>
         <v>145</v>
@@ -13531,7 +13520,7 @@
         <v>738.93745337477651</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147">
         <f>Data!B147</f>
         <v>146</v>
@@ -13561,7 +13550,7 @@
         <v>847.68414518616544</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148">
         <f>Data!B148</f>
         <v>147</v>
@@ -13591,7 +13580,7 @@
         <v>572.91993332402046</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149">
         <f>Data!B149</f>
         <v>148</v>
@@ -13621,7 +13610,7 @@
         <v>338.96343460615333</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150">
         <f>Data!B150</f>
         <v>149</v>
@@ -13651,7 +13640,7 @@
         <v>598.5530552925112</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151">
         <f>Data!B151</f>
         <v>150</v>
@@ -13681,7 +13670,7 @@
         <v>472.59373673378281</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152">
         <f>Data!B152</f>
         <v>151</v>
@@ -13711,7 +13700,7 @@
         <v>538.69412471271676</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153">
         <f>Data!B153</f>
         <v>152</v>
@@ -13741,7 +13730,7 @@
         <v>593.49154164149627</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154">
         <f>Data!B154</f>
         <v>153</v>
@@ -13771,7 +13760,7 @@
         <v>660.69657180887509</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155">
         <f>Data!B155</f>
         <v>154</v>
@@ -13801,7 +13790,7 @@
         <v>654.03700965618145</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156">
         <f>Data!B156</f>
         <v>155</v>
@@ -13831,7 +13820,7 @@
         <v>762.65302726731511</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157">
         <f>Data!B157</f>
         <v>156</v>
@@ -13861,7 +13850,7 @@
         <v>698.51015740646176</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158">
         <f>Data!B158</f>
         <v>157</v>
@@ -13891,7 +13880,7 @@
         <v>555.31481557761447</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159">
         <f>Data!B159</f>
         <v>158</v>
@@ -13921,7 +13910,7 @@
         <v>774.07183129216116</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160">
         <f>Data!B160</f>
         <v>159</v>
@@ -13951,7 +13940,7 @@
         <v>891.96760030844166</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161">
         <f>Data!B161</f>
         <v>160</v>
@@ -13981,7 +13970,7 @@
         <v>732.39648415322142</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162">
         <f>Data!B162</f>
         <v>161</v>
@@ -14011,7 +14000,7 @@
         <v>685.66854966521544</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163">
         <f>Data!B163</f>
         <v>162</v>
@@ -14041,7 +14030,7 @@
         <v>767.06206274329861</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164">
         <f>Data!B164</f>
         <v>163</v>
@@ -14071,7 +14060,7 @@
         <v>717.45201930163944</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165">
         <f>Data!B165</f>
         <v>164</v>
@@ -14101,7 +14090,7 @@
         <v>703.3895435674317</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166">
         <f>Data!B166</f>
         <v>165</v>
@@ -14131,7 +14120,7 @@
         <v>732.71934599817962</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167">
         <f>Data!B167</f>
         <v>166</v>
@@ -14161,7 +14150,7 @@
         <v>846.82486973399637</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168">
         <f>Data!B168</f>
         <v>167</v>
@@ -14191,7 +14180,7 @@
         <v>501.68226000128806</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169">
         <f>Data!B169</f>
         <v>168</v>
@@ -14221,7 +14210,7 @@
         <v>708.21415546429171</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170">
         <f>Data!B170</f>
         <v>169</v>
@@ -14251,7 +14240,7 @@
         <v>611.26365015433396</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171">
         <f>Data!B171</f>
         <v>170</v>
@@ -14281,7 +14270,7 @@
         <v>338.46744304290183</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172">
         <f>Data!B172</f>
         <v>171</v>
@@ -14311,7 +14300,7 @@
         <v>639.74104917536749</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173">
         <f>Data!B173</f>
         <v>172</v>
@@ -14341,7 +14330,7 @@
         <v>776.85216740381179</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174">
         <f>Data!B174</f>
         <v>173</v>
@@ -14371,7 +14360,7 @@
         <v>674.63720620789957</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175">
         <f>Data!B175</f>
         <v>174</v>
@@ -14401,7 +14390,7 @@
         <v>416.57700368599319</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176">
         <f>Data!B176</f>
         <v>175</v>
@@ -14431,7 +14420,7 @@
         <v>345.67193985048891</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177">
         <f>Data!B177</f>
         <v>176</v>
@@ -14461,7 +14450,7 @@
         <v>755.15452723267174</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178">
         <f>Data!B178</f>
         <v>177</v>
@@ -14491,7 +14480,7 @@
         <v>577.32806098439391</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179">
         <f>Data!B179</f>
         <v>178</v>
@@ -14521,7 +14510,7 @@
         <v>543.91014882974923</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180">
         <f>Data!B180</f>
         <v>179</v>
@@ -14551,7 +14540,7 @@
         <v>530.08863409811011</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181">
         <f>Data!B181</f>
         <v>180</v>
@@ -14581,7 +14570,7 @@
         <v>509.03556850184845</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182">
         <f>Data!B182</f>
         <v>181</v>
@@ -14611,7 +14600,7 @@
         <v>550.64365972922997</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183">
         <f>Data!B183</f>
         <v>182</v>
@@ -14641,7 +14630,7 @@
         <v>791.88679115136142</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184">
         <f>Data!B184</f>
         <v>183</v>
@@ -14671,7 +14660,7 @@
         <v>552.96654510015344</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185">
         <f>Data!B185</f>
         <v>184</v>
@@ -14701,7 +14690,7 @@
         <v>923.07653528838011</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186">
         <f>Data!B186</f>
         <v>185</v>
@@ -14731,7 +14720,7 @@
         <v>582.73895527929142</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187">
         <f>Data!B187</f>
         <v>186</v>
@@ -14761,7 +14750,7 @@
         <v>517.4589452314068</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188">
         <f>Data!B188</f>
         <v>187</v>
@@ -14791,7 +14780,7 @@
         <v>621.61277335653256</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189">
         <f>Data!B189</f>
         <v>188</v>
@@ -14821,7 +14810,7 @@
         <v>1088.529944466389</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190">
         <f>Data!B190</f>
         <v>189</v>
@@ -14851,7 +14840,7 @@
         <v>931.54291366528037</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191">
         <f>Data!B191</f>
         <v>190</v>
@@ -14881,7 +14870,7 @@
         <v>1077.8847294585817</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192">
         <f>Data!B192</f>
         <v>191</v>
@@ -14911,7 +14900,7 @@
         <v>117.656321547123</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193">
         <f>Data!B193</f>
         <v>192</v>
@@ -14941,7 +14930,7 @@
         <v>549.51259312230502</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194">
         <f>Data!B194</f>
         <v>193</v>
@@ -14971,7 +14960,7 @@
         <v>850.06249182045428</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195">
         <f>Data!B195</f>
         <v>194</v>
@@ -15001,7 +14990,7 @@
         <v>406.89361017347028</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196">
         <f>Data!B196</f>
         <v>195</v>
@@ -15031,7 +15020,7 @@
         <v>864.1042819012066</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197">
         <f>Data!B197</f>
         <v>196</v>
@@ -15061,7 +15050,7 @@
         <v>684.74363085756409</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198">
         <f>Data!B198</f>
         <v>197</v>
@@ -15091,7 +15080,7 @@
         <v>1064.2798504152938</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199">
         <f>Data!B199</f>
         <v>198</v>
@@ -15121,7 +15110,7 @@
         <v>593.69810510056368</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200">
         <f>Data!B200</f>
         <v>199</v>
@@ -15151,7 +15140,7 @@
         <v>688.56009904728</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201">
         <f>Data!B201</f>
         <v>200</v>
@@ -15181,7 +15170,7 @@
         <v>807.31195952989572</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202">
         <f>Data!B202</f>
         <v>201</v>
@@ -15211,7 +15200,7 @@
         <v>807.31195952989572</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="B206">
         <f>MAX(B2:B201)</f>
         <v>6705.9</v>
